--- a/DGE_CRED_Model/ExcelFiles/ModelSimulationandCalibration12Sectorsand2Regions.xlsx
+++ b/DGE_CRED_Model/ExcelFiles/ModelSimulationandCalibration12Sectorsand2Regions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VWGR\Gemeins.Projekte\2020\GIZ_Klima\Github\master\DGE_CRED_Model\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VWGR\Gemeins.Projekte\2020\GIZ_Klima\Github\public\DGE-CRED\DGE_CRED_Model\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7488" windowHeight="2460" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7488" windowHeight="2460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="6" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="769">
   <si>
     <t>Sheets</t>
   </si>
@@ -2468,6 +2468,9 @@
   </si>
   <si>
     <t>exo_G_A_DH</t>
+  </si>
+  <si>
+    <t>investments in residential building relative to GDP</t>
   </si>
 </sst>
 </file>
@@ -2521,8 +2524,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2538,7 +2541,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2806,7 +2809,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.47265625" bestFit="1" customWidth="1"/>
@@ -3008,7 +3011,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="20.47265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.3125" bestFit="1" customWidth="1"/>
@@ -3793,11 +3796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.47265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.68359375" bestFit="1" customWidth="1"/>
@@ -3872,7 +3873,7 @@
         <v>0.01</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4874,11 +4875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.3125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.68359375" bestFit="1" customWidth="1"/>
@@ -7175,7 +7176,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4.578125" customWidth="1"/>
     <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
@@ -22398,7 +22399,7 @@
       <selection activeCell="F30" sqref="F30:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4.578125" customWidth="1"/>
     <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
